--- a/biology/Médecine/Bernard_Nathanson/Bernard_Nathanson.xlsx
+++ b/biology/Médecine/Bernard_Nathanson/Bernard_Nathanson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Nathanson, né le 31 juillet 1926 à New York et mort le 21 février 2011[1],  est un médecin américain. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Nathanson, né le 31 juillet 1926 à New York et mort le 21 février 2011,  est un médecin américain. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans une famille juive, il est devenu athée, et s'est par la suite converti au catholicisme[1] avec l'aide de l'Opus Dei[2], et a été baptisé le 19 décembre 1996 en la Cathédrale Saint-Patrick de New York[1], des mains du Cardinal O'Connor[1].
-Diplômé en 1949, spécialiste en obstétrique et gynécologie en 1960, il a fait partie du groupe fondateurs de l'association Pro-choix NARAL qui est à l'origine de la décision judiciaire Roe v. Wade. Puis, après son rapprochement de l'Opus Dei, il est devenu un ardent pro-vie, se déclarant « personnellement responsable de 60 000 avortements »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans une famille juive, il est devenu athée, et s'est par la suite converti au catholicisme avec l'aide de l'Opus Dei, et a été baptisé le 19 décembre 1996 en la Cathédrale Saint-Patrick de New York, des mains du Cardinal O'Connor.
+Diplômé en 1949, spécialiste en obstétrique et gynécologie en 1960, il a fait partie du groupe fondateurs de l'association Pro-choix NARAL qui est à l'origine de la décision judiciaire Roe v. Wade. Puis, après son rapprochement de l'Opus Dei, il est devenu un ardent pro-vie, se déclarant « personnellement responsable de 60 000 avortements ».
 Il est décédé le 21 février 2011, à l'âge de 84 ans, après une longue lutte contre le cancer.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Réalisateur d'un film de communication anti-avortement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1984, il réalise un film, Le Cri Silencieux, qui montre le déroulement d'une IVG sur un fœtus humain, âgé soi-disant de 12 semaines. 
-Le professeur Étienne-Émile Baulieu, accusé de diffamation par les auteurs du film pour l'avoir qualifié d’escroquerie scientifique et de manipulation, a été relaxé. Le Tribunal de Grande Instance de Paris (17e Chambre) écrit dans son jugement du 20 février 1992[3] : « Le film tend à une dramatisation manifeste du propos et ne saurait être considéré comme un document objectif, à caractère scientifique, mais plutôt comme un film de propagande qui vise à convaincre par tous les moyens, notamment par l'appel à l'émotion du public. »
+Le professeur Étienne-Émile Baulieu, accusé de diffamation par les auteurs du film pour l'avoir qualifié d’escroquerie scientifique et de manipulation, a été relaxé. Le Tribunal de Grande Instance de Paris (17e Chambre) écrit dans son jugement du 20 février 1992 : « Le film tend à une dramatisation manifeste du propos et ne saurait être considéré comme un document objectif, à caractère scientifique, mais plutôt comme un film de propagande qui vise à convaincre par tous les moyens, notamment par l'appel à l'émotion du public. »
 </t>
         </is>
       </c>
